--- a/data/trans_dic/P36BPD01_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8498908198362887</v>
+        <v>0.849890819836289</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8833462633755065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8685499679146634</v>
+        <v>0.8685499679146633</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8079375551798115</v>
+        <v>0.8083238354273355</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8548592623583501</v>
+        <v>0.854986297468711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8476275466834413</v>
+        <v>0.845413485375751</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8824704464944687</v>
+        <v>0.8833799697295981</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9053015876023065</v>
+        <v>0.9062368034706286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8894345635806524</v>
+        <v>0.8885426804921259</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9367995335331493</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9315580211372537</v>
+        <v>0.9315580211372538</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8974578278678099</v>
+        <v>0.8999079767055558</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9232296728927121</v>
+        <v>0.9217662776529622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.918666829524985</v>
+        <v>0.9173067231207405</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9438176386628037</v>
+        <v>0.9437275762317328</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9493017464095846</v>
+        <v>0.9499114007601418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9423077503572147</v>
+        <v>0.9419261524385786</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.972010937710476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9715053040972322</v>
+        <v>0.9715053040972323</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9579765748036388</v>
+        <v>0.9579780541067107</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9610604269679435</v>
+        <v>0.9603956660182096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9624760439059056</v>
+        <v>0.962512937458109</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9805399574161819</v>
+        <v>0.9808526766247104</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9804287601846444</v>
+        <v>0.9801091273493721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9779516997924074</v>
+        <v>0.978221764459559</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.9663399749904614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9652779286320282</v>
+        <v>0.9652779286320283</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9473787621578971</v>
+        <v>0.9482656011005197</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9533701801403444</v>
+        <v>0.9540848976454931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.955509263829926</v>
+        <v>0.955063013656101</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9760874385653191</v>
+        <v>0.9757847119400251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9758533296557629</v>
+        <v>0.9761468911667985</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9727133479972295</v>
+        <v>0.9733828216527417</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9295228510904996</v>
+        <v>0.9289887775696607</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9371559870521542</v>
+        <v>0.9376170344820447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9360228634329741</v>
+        <v>0.9362746058127539</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9491241664161462</v>
+        <v>0.9479752452535254</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.952190710924275</v>
+        <v>0.9517814464341822</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9480496606845462</v>
+        <v>0.9476945363948258</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>399513</v>
+        <v>399704</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>533073</v>
+        <v>533152</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>947704</v>
+        <v>945228</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>436368</v>
+        <v>436818</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>564528</v>
+        <v>565111</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>994447</v>
+        <v>993449</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>861682</v>
+        <v>864035</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1023954</v>
+        <v>1022331</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1900938</v>
+        <v>1898124</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>906194</v>
+        <v>906108</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1052871</v>
+        <v>1053547</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1949857</v>
+        <v>1949068</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>997051</v>
+        <v>997053</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1006118</v>
+        <v>1005422</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2009335</v>
+        <v>2009412</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1020535</v>
+        <v>1020861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1026394</v>
+        <v>1026060</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2041643</v>
+        <v>2042207</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>918565</v>
+        <v>919425</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>865899</v>
+        <v>866549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1794291</v>
+        <v>1793453</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>946401</v>
+        <v>946107</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>886320</v>
+        <v>886586</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1826597</v>
+        <v>1827854</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3220795</v>
+        <v>3218944</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3456057</v>
+        <v>3457757</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6695196</v>
+        <v>6696996</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3288713</v>
+        <v>3284732</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3511502</v>
+        <v>3509993</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6781221</v>
+        <v>6778681</v>
       </c>
     </row>
     <row r="24">
